--- a/docs/satshakit_BOM.xlsx
+++ b/docs/satshakit_BOM.xlsx
@@ -172,7 +172,7 @@
     <t>pin header</t>
   </si>
   <si>
-    <t>POWER</t>
+    <t>POWER/PAD_B</t>
   </si>
   <si>
     <t>M20-9990246</t>
@@ -283,7 +283,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.29"/>
+    <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="12.0"/>
     <col customWidth="1" min="3" max="3" width="38.86"/>
     <col customWidth="1" min="4" max="4" width="19.14"/>
@@ -655,7 +655,7 @@
         <v>0.0525</v>
       </c>
       <c r="H12" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I12" s="4">
         <v>0.52</v>

--- a/docs/satshakit_BOM.xlsx
+++ b/docs/satshakit_BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="BOM" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -154,13 +154,13 @@
     <t>MC1206F105Z500CT</t>
   </si>
   <si>
-    <t>C5</t>
+    <t>C5/C6</t>
   </si>
   <si>
-    <t>100pF</t>
+    <t>100nF</t>
   </si>
   <si>
-    <t>MC1206N101J500CT</t>
+    <t>MC1206B104K500CT</t>
   </si>
   <si>
     <t>PAD_1/PAD_2</t>
@@ -191,6 +191,7 @@
   <fonts count="4">
     <font>
       <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -210,14 +211,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -226,41 +220,43 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -268,7 +264,6 @@
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -648,17 +643,17 @@
         <v>40</v>
       </c>
       <c r="F12" s="3" t="str">
-        <f>HYPERLINK("http://it.farnell.com/multicomp/mc1206n101j500ct/conden-mlcc-c0g-np0-100pf-50v/dp/1759327","1759327")</f>
-        <v>1759327</v>
+        <f>HYPERLINK("http://it.farnell.com/multicomp/mc1206b104k500ct/condensatore-mlcc-x7r-100nf-50v/dp/1759361","1759361")</f>
+        <v>1759361</v>
       </c>
       <c r="G12" s="4">
-        <v>0.0525</v>
+        <v>0.0354</v>
       </c>
       <c r="H12" s="2">
         <v>2.0</v>
       </c>
       <c r="I12" s="4">
-        <v>0.52</v>
+        <v>0.35</v>
       </c>
       <c r="J12" s="5"/>
     </row>
@@ -749,7 +744,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="7" t="str">
         <f>sum(I2:I14)</f>
-        <v>9.23</v>
+        <v>9.06</v>
       </c>
       <c r="J16" s="5"/>
     </row>
